--- a/test_simulation_data/Resultfile.xlsx
+++ b/test_simulation_data/Resultfile.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="par-cartesian" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="par-manual" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="par-random" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="variants" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="results" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="par-cartesian" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="par-manual" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="par-random" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="par-output" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="variants" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -82,11 +83,14 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -470,92 +474,92 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.28" customWidth="1" style="2" min="1" max="2"/>
+    <col width="13.28" customWidth="1" style="3" min="1" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>PARAMETER</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>VALUE</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Demo_v1</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>cartesian</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>N_random</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>output_file</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>/postProcessing/probes/0/p</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="3">
-      <c r="A6" s="2" t="inlineStr">
+    <row r="6" ht="15" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>mesher</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>blockMesh</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="3">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="7" ht="15" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>simpleFoam</t>
         </is>
@@ -582,118 +586,118 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="25.28" customWidth="1" style="2" min="1" max="1"/>
-    <col width="26.15" customWidth="1" style="2" min="2" max="2"/>
+    <col width="25.28" customWidth="1" style="3" min="1" max="1"/>
+    <col width="26.15" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>VARIABLE</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>MAX</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>UIn</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>geometric_progress</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>arithmetic_progress</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>mu</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>7;2</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="3"/>
-    <row r="11" ht="13.8" customHeight="1" s="3"/>
-    <row r="12" ht="13.8" customHeight="1" s="3"/>
-    <row r="13" ht="13.8" customHeight="1" s="3"/>
-    <row r="14" ht="13.8" customHeight="1" s="3"/>
-    <row r="15" ht="13.8" customHeight="1" s="3"/>
-    <row r="16" ht="13.8" customHeight="1" s="3"/>
-    <row r="17" ht="13.8" customHeight="1" s="3"/>
-    <row r="18" ht="13.8" customHeight="1" s="3"/>
-    <row r="19" ht="13.8" customHeight="1" s="3"/>
-    <row r="20" ht="13.8" customHeight="1" s="3"/>
-    <row r="21" ht="13.8" customHeight="1" s="3"/>
-    <row r="22" ht="13.8" customHeight="1" s="3"/>
-    <row r="23" ht="13.8" customHeight="1" s="3"/>
-    <row r="24" ht="13.8" customHeight="1" s="3"/>
-    <row r="25" ht="13.8" customHeight="1" s="3"/>
-    <row r="26" ht="13.8" customHeight="1" s="3"/>
+    <row r="5" ht="13.8" customHeight="1" s="4"/>
+    <row r="11" ht="13.8" customHeight="1" s="4"/>
+    <row r="12" ht="13.8" customHeight="1" s="4"/>
+    <row r="13" ht="13.8" customHeight="1" s="4"/>
+    <row r="14" ht="13.8" customHeight="1" s="4"/>
+    <row r="15" ht="13.8" customHeight="1" s="4"/>
+    <row r="16" ht="13.8" customHeight="1" s="4"/>
+    <row r="17" ht="13.8" customHeight="1" s="4"/>
+    <row r="18" ht="13.8" customHeight="1" s="4"/>
+    <row r="19" ht="13.8" customHeight="1" s="4"/>
+    <row r="20" ht="13.8" customHeight="1" s="4"/>
+    <row r="21" ht="13.8" customHeight="1" s="4"/>
+    <row r="22" ht="13.8" customHeight="1" s="4"/>
+    <row r="23" ht="13.8" customHeight="1" s="4"/>
+    <row r="24" ht="13.8" customHeight="1" s="4"/>
+    <row r="25" ht="13.8" customHeight="1" s="4"/>
+    <row r="26" ht="13.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -715,59 +719,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>UIn</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1231</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>11412</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="3">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>123214</v>
       </c>
     </row>
@@ -792,94 +796,94 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="23.57" customWidth="1" style="2" min="1" max="1"/>
-    <col width="29.86" customWidth="1" style="2" min="2" max="2"/>
-    <col width="20.43" customWidth="1" style="2" min="3" max="3"/>
-    <col width="20.71" customWidth="1" style="2" min="4" max="4"/>
-    <col width="12.57" customWidth="1" style="2" min="5" max="5"/>
+    <col width="23.57" customWidth="1" style="3" min="1" max="1"/>
+    <col width="29.86" customWidth="1" style="3" min="2" max="2"/>
+    <col width="20.43" customWidth="1" style="3" min="3" max="3"/>
+    <col width="20.71" customWidth="1" style="3" min="4" max="4"/>
+    <col width="12.57" customWidth="1" style="3" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>VARIABLE</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>DISTRIBUTION</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>MAX</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SIGMA</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LIMITS</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>UIn</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>uniform</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>20000</v>
       </c>
     </row>
@@ -892,210 +896,81 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="22.04" customWidth="1" style="3" min="2" max="2"/>
+    <col width="25.15" customWidth="1" style="3" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>UIn</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>OUTPUT_NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="13.8" customHeight="1" s="4">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>mu</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>/postProcessing/probes/0/p</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="13.8" customHeight="1" s="4">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>magU</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>/postProcessing/probes/0/mag(U)</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1105,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,39 +989,96 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>UIn</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>mu</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>OUT0</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>OUT1</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>OUT2</t>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>6.231769768424171</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>16968.22813449903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>UIn</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>OUT_0_p</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>OUT_1_p</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>OUT_2_p</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>OUT_3_magU</t>
+        </is>
+      </c>
+      <c r="H1" s="6" t="inlineStr">
+        <is>
+          <t>OUT_4_magU</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>OUT_5_magU</t>
         </is>
       </c>
     </row>
@@ -1155,346 +1087,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>6.231769768424171</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7</v>
+        <v>16968.22813449903</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>16967.2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100.16</t>
+          <t>16972.9</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100.189</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>100.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100.189</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>500</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>500.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>500.189</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>500</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>500.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>500.189</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.158</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>101.509</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100.158</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>101.509</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="C8" t="n">
-        <v>500</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>500.158</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>501.509</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.16227766016838</v>
-      </c>
-      <c r="C9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>500.158</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>501.509</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>96.3229</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>111.087</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>96.3229</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>111.087</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>500</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>496.308</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>511.057</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>500</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>496.308</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>511.057</t>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4.116</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3.74843</t>
         </is>
       </c>
     </row>
